--- a/ENGL/ENGLttl.xlsx
+++ b/ENGL/ENGLttl.xlsx
@@ -509,7 +509,7 @@
         <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>1433</v>
+        <v>1460</v>
       </c>
       <c r="D4" t="n">
         <v>63</v>
@@ -528,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -566,7 +566,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="D7" t="n">
         <v>48</v>
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>

--- a/ENGL/ENGLttl.xlsx
+++ b/ENGL/ENGLttl.xlsx
@@ -509,7 +509,7 @@
         <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D4" t="n">
         <v>63</v>
@@ -528,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
@@ -566,7 +566,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="D7" t="n">
         <v>48</v>

--- a/ENGL/ENGLttl.xlsx
+++ b/ENGL/ENGLttl.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>1461</v>
+        <v>628</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>1720</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>264</v>
+        <v>162</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
@@ -547,13 +547,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
@@ -566,13 +566,13 @@
         <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>921</v>
+        <v>871</v>
       </c>
       <c r="D7" t="n">
         <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>1050</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -654,52 +654,52 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ENGL 230B</t>
+          <t>ENGL 226</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ENGL 232</t>
+          <t>ENGL 227</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ENGL 235</t>
+          <t>ENGL 230B</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -711,33 +711,33 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ENGL 240</t>
+          <t>ENGL 232</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ENGL 245</t>
+          <t>ENGL 235</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -749,33 +749,33 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ENGL 246B</t>
+          <t>ENGL 240</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ENGL 247</t>
+          <t>ENGL 242</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -787,38 +787,114 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ENGL 248B</t>
+          <t>ENGL 245</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>ENGL 246B</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>ENGL 248B</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ENGL 249</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>ENGL 250</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>ENGL 50A</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>33</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
         <v>35</v>
       </c>
     </row>

--- a/ENGL/ENGLttl.xlsx
+++ b/ENGL/ENGLttl.xlsx
@@ -509,7 +509,7 @@
         <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>628</v>
+        <v>742</v>
       </c>
       <c r="D4" t="n">
         <v>60</v>
@@ -528,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -566,7 +566,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>871</v>
+        <v>932</v>
       </c>
       <c r="D7" t="n">
         <v>48</v>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
